--- a/PROJECT_MANAGEMENT/PLANNING.xlsx
+++ b/PROJECT_MANAGEMENT/PLANNING.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG\TFG\PROJECT_MANAGEMENT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1A44D0-882E-4E90-ABE9-6CBDF29FA85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>IDENTIFICADOR</t>
   </si>
@@ -31,9 +37,6 @@
     <t>HORAS REALES</t>
   </si>
   <si>
-    <t>Diagrama de clases y diseño de la programación</t>
-  </si>
-  <si>
     <t>crítica</t>
   </si>
   <si>
@@ -58,15 +61,6 @@
     <t>Recolecta de información en la nube</t>
   </si>
   <si>
-    <t>Diiseño de la base de datos</t>
-  </si>
-  <si>
-    <t>Impementación de pruebas</t>
-  </si>
-  <si>
-    <t>Impementación de varios idiomas (alemán, italiano, etc.)</t>
-  </si>
-  <si>
     <t>Implementación de transiciones entre pantallas</t>
   </si>
   <si>
@@ -77,13 +71,42 @@
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>Diseño de la nevagción entre pantallas</t>
+  </si>
+  <si>
+    <t>Diseño de la base de datos</t>
+  </si>
+  <si>
+    <t>Implementación de traducciones en varios idiomas</t>
+  </si>
+  <si>
+    <t>Creación de la base de datos en Firebase</t>
+  </si>
+  <si>
+    <t>Implementación del enlace a la base de datos</t>
+  </si>
+  <si>
+    <t>Diseño de pruebas</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>en proceso</t>
+  </si>
+  <si>
+    <t>Implementación de MVVM y arquitectura clean</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -144,7 +167,9 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -160,7 +185,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -172,111 +197,94 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -287,10 +295,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -328,71 +336,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,7 +428,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -443,11 +451,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -456,13 +464,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -472,7 +480,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -481,7 +489,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -490,7 +498,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -498,10 +506,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -566,26 +574,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="22" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="23" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="50.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="25" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="24" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -594,7 +605,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -603,7 +614,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
@@ -622,390 +633,482 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="8">
+      <c r="C4" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="F4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="13">
-        <v>10</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="D6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <v>3</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="13">
-        <v>10</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="D8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2</v>
+      </c>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="13">
+      <c r="C10" s="15">
         <v>4</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="F10" s="17">
         <v>1.5</v>
       </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="C11" s="12"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="13">
+      <c r="C12" s="15">
         <v>5</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>12</v>
+      <c r="D12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="F12" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="C13" s="12"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="13">
+      <c r="C14" s="15">
         <v>6</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="D14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="17">
         <v>1</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="C15" s="12"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="13">
+      <c r="C16" s="15">
         <v>7</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="E16" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="F16" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="C17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="13">
+      <c r="C18" s="15">
         <v>8</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="13">
-        <v>6</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="D18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="C19" s="12"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="13">
+      <c r="C20" s="15">
         <v>9</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="13">
-        <v>2</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="D20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="C21" s="12"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="13">
+      <c r="C22" s="15">
         <v>10</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>12</v>
+      <c r="D22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="F22" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="C23" s="12"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="13">
+      <c r="C24" s="15">
         <v>11</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="13">
-        <v>2</v>
-      </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="D24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="C25" s="12"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="13">
+      <c r="C26" s="15">
         <v>12</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="D26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="17">
+        <v>3</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
+      <c r="C27" s="12"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-    </row>
+      <c r="C28" s="15">
+        <v>13</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="15">
+        <v>14</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="15">
+        <v>15</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="15">
+        <v>10</v>
+      </c>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="75">
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>